--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2015-09-15.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2015-09-15.xlsx
@@ -1512,14 +1512,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1565,6 +1562,9 @@
     </xf>
     <xf numFmtId="14" fontId="21" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -21460,10 +21460,10 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -21530,12 +21530,12 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="15">
         <f>SUM(E4:E40)</f>
         <v>13490604.728899997</v>
@@ -21570,17 +21570,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="44">
+      <c r="A4" s="43">
         <f>RA!A8</f>
         <v>42262</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D36,3,0)</f>
         <v>466627.81349999999</v>
@@ -21615,14 +21615,14 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D37,3,0)</f>
         <v>72832.452699999994</v>
@@ -21658,14 +21658,14 @@
       <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D38,3,0)</f>
         <v>91758.817899999995</v>
@@ -21701,14 +21701,14 @@
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D39,3,0)</f>
         <v>40990.256500000003</v>
@@ -21744,14 +21744,14 @@
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D39,3,0)</f>
         <v>107643.7059</v>
@@ -21787,14 +21787,14 @@
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D40,3,0)</f>
         <v>193484.8787</v>
@@ -21830,14 +21830,14 @@
       <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D41,3,0)</f>
         <v>88820.259099999996</v>
@@ -21873,14 +21873,14 @@
       <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D42,3,0)</f>
         <v>57592.707399999999</v>
@@ -21916,14 +21916,14 @@
       <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D43,3,0)</f>
         <v>689408.15469999996</v>
@@ -21959,14 +21959,14 @@
       <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D44,3,0)</f>
         <v>661020.58990000002</v>
@@ -22002,14 +22002,14 @@
       <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D45,3,0)</f>
         <v>1077062.7165999999</v>
@@ -22045,14 +22045,14 @@
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D46,3,0)</f>
         <v>409842.89409999998</v>
@@ -22088,14 +22088,14 @@
       <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D47,3,0)</f>
         <v>881069.63100000005</v>
@@ -22131,14 +22131,14 @@
       <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D48,3,0)</f>
         <v>274244.31209999998</v>
@@ -22174,14 +22174,14 @@
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D49,3,0)</f>
         <v>1014144.828</v>
@@ -22217,14 +22217,14 @@
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D50,3,0)</f>
         <v>2304947.102</v>
@@ -22260,14 +22260,14 @@
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D51,3,0)</f>
         <v>189849.8572</v>
@@ -22303,14 +22303,14 @@
       <c r="M20" s="34"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D52,3,0)</f>
         <v>216611.73300000001</v>
@@ -22346,14 +22346,14 @@
       <c r="M21" s="34"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D53,3,0)</f>
         <v>417634.06180000002</v>
@@ -22389,14 +22389,14 @@
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D54,3,0)</f>
         <v>226156.61060000001</v>
@@ -22432,14 +22432,14 @@
       <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D55,3,0)</f>
         <v>854225.02170000004</v>
@@ -22475,14 +22475,14 @@
       <c r="M24" s="34"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D56,3,0)</f>
         <v>632125.90509999997</v>
@@ -22518,14 +22518,14 @@
       <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D57,3,0)</f>
         <v>817295.74120000005</v>
@@ -22561,14 +22561,14 @@
       <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D58,3,0)</f>
         <v>776234.61349999998</v>
@@ -22604,14 +22604,14 @@
       <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D59,3,0)</f>
         <v>89714.611300000004</v>
@@ -22647,14 +22647,14 @@
       <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D60,3,0)</f>
         <v>0</v>
@@ -22690,14 +22690,14 @@
       <c r="M29" s="34"/>
     </row>
     <row r="30" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D62,3,0)</f>
         <v>135152.17879999999</v>
@@ -22733,14 +22733,14 @@
       <c r="M30" s="34"/>
     </row>
     <row r="31" spans="1:13" s="38" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="12">
         <v>70</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B35:D63,3,0)</f>
         <v>48381.23</v>
@@ -22775,14 +22775,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D63,3,0)</f>
         <v>94766.73</v>
@@ -22818,14 +22818,14 @@
       <c r="M32" s="34"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D64,3,0)</f>
         <v>9468.3700000000008</v>
@@ -22861,14 +22861,14 @@
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B35:D65,3,0)</f>
         <v>61395.8</v>
@@ -22904,14 +22904,14 @@
       <c r="M34" s="34"/>
     </row>
     <row r="35" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="42"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B36:D66,3,0)</f>
         <v>0</v>
@@ -22946,14 +22946,14 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="42"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D66,3,0)</f>
         <v>126517.94899999999</v>
@@ -22989,14 +22989,14 @@
       <c r="M36" s="34"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="42"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D67,3,0)</f>
         <v>252593.56830000001</v>
@@ -23032,14 +23032,14 @@
       <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="44"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D68,3,0)</f>
         <v>57626.52</v>
@@ -23075,14 +23075,14 @@
       <c r="M38" s="34"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="44"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D69,3,0)</f>
         <v>34002.589999999997</v>
@@ -23118,14 +23118,14 @@
       <c r="M39" s="34"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="44"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="12">
         <v>99</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="42"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B8:D70,3,0)</f>
         <v>19360.5173</v>
@@ -23162,30 +23162,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -23202,6 +23178,30 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23214,7 +23214,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:W45"/>
     </sheetView>
   </sheetViews>
@@ -23240,108 +23240,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
       <c r="V1" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="49"/>
+      <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
       <c r="V2" s="59"/>
-      <c r="W2" s="49"/>
+      <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
       <c r="V3" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="49"/>
+      <c r="W3" s="48"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
       <c r="V4" s="58"/>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
@@ -23408,10 +23408,10 @@
       <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
@@ -23434,11 +23434,11 @@
       <c r="W6" s="58"/>
     </row>
     <row r="7" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="68">
         <v>13490604.7289</v>
       </c>
@@ -23497,13 +23497,13 @@
       <c r="W7" s="58"/>
     </row>
     <row r="8" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55">
+      <c r="A8" s="54">
         <v>42262</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="71">
         <v>466627.81349999999</v>
       </c>
@@ -23562,11 +23562,11 @@
       <c r="W8" s="58"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="71">
         <v>72832.452699999994</v>
       </c>
@@ -23625,11 +23625,11 @@
       <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="71">
         <v>91758.817899999995</v>
       </c>
@@ -23688,11 +23688,11 @@
       <c r="W10" s="58"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="71">
         <v>40990.256500000003</v>
       </c>
@@ -23751,11 +23751,11 @@
       <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="71">
         <v>107643.7059</v>
       </c>
@@ -23814,11 +23814,11 @@
       <c r="W12" s="58"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="71">
         <v>193484.8787</v>
       </c>
@@ -23877,11 +23877,11 @@
       <c r="W13" s="58"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="71">
         <v>88820.259099999996</v>
       </c>
@@ -23940,11 +23940,11 @@
       <c r="W14" s="58"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="71">
         <v>57592.707399999999</v>
       </c>
@@ -24003,11 +24003,11 @@
       <c r="W15" s="58"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="71">
         <v>689408.15469999996</v>
       </c>
@@ -24066,11 +24066,11 @@
       <c r="W16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="71">
         <v>661020.58990000002</v>
       </c>
@@ -24125,15 +24125,15 @@
       <c r="U17" s="73">
         <v>2.9586208002709502</v>
       </c>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
     </row>
     <row r="18" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="71">
         <v>1077062.7165999999</v>
       </c>
@@ -24188,15 +24188,15 @@
       <c r="U18" s="73">
         <v>-0.46384448914248699</v>
       </c>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
     </row>
     <row r="19" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="71">
         <v>409842.89409999998</v>
       </c>
@@ -24251,15 +24251,15 @@
       <c r="U19" s="73">
         <v>0.196081331497101</v>
       </c>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
     </row>
     <row r="20" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="71">
         <v>881069.63100000005</v>
       </c>
@@ -24314,15 +24314,15 @@
       <c r="U20" s="73">
         <v>1.2225345001591399</v>
       </c>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
     </row>
     <row r="21" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="71">
         <v>274244.31209999998</v>
       </c>
@@ -24377,15 +24377,15 @@
       <c r="U21" s="73">
         <v>0.57473650765714601</v>
       </c>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
     </row>
     <row r="22" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="71">
         <v>1014144.828</v>
       </c>
@@ -24440,15 +24440,15 @@
       <c r="U22" s="73">
         <v>-0.715259207991367</v>
       </c>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
     </row>
     <row r="23" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="71">
         <v>2304947.102</v>
       </c>
@@ -24503,15 +24503,15 @@
       <c r="U23" s="73">
         <v>11.5359172189352</v>
       </c>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
     </row>
     <row r="24" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="46"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="71">
         <v>189849.8572</v>
       </c>
@@ -24566,15 +24566,15 @@
       <c r="U24" s="73">
         <v>-2.1539054647489602</v>
       </c>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
     </row>
     <row r="25" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="71">
         <v>216611.73300000001</v>
       </c>
@@ -24629,15 +24629,15 @@
       <c r="U25" s="73">
         <v>1.3690854924095599</v>
       </c>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
     </row>
     <row r="26" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="71">
         <v>417634.06180000002</v>
       </c>
@@ -24692,15 +24692,15 @@
       <c r="U26" s="73">
         <v>1.0659643824371701</v>
       </c>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
     </row>
     <row r="27" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="71">
         <v>226156.61060000001</v>
       </c>
@@ -24755,15 +24755,15 @@
       <c r="U27" s="73">
         <v>0.40232348137348001</v>
       </c>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
     </row>
     <row r="28" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="71">
         <v>854225.02170000004</v>
       </c>
@@ -24818,15 +24818,15 @@
       <c r="U28" s="73">
         <v>0.37636529304968702</v>
       </c>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
     </row>
     <row r="29" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="71">
         <v>632125.90509999997</v>
       </c>
@@ -24881,15 +24881,15 @@
       <c r="U29" s="73">
         <v>-0.334071918711978</v>
       </c>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
     </row>
     <row r="30" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="71">
         <v>817295.74120000005</v>
       </c>
@@ -24944,15 +24944,15 @@
       <c r="U30" s="73">
         <v>-0.271401798797969</v>
       </c>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
     </row>
     <row r="31" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="55"/>
+      <c r="B31" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="71">
         <v>776234.61349999998</v>
       </c>
@@ -25007,15 +25007,15 @@
       <c r="U31" s="73">
         <v>-0.98199927738156001</v>
       </c>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
     </row>
     <row r="32" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="55"/>
+      <c r="B32" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="71">
         <v>89714.611300000004</v>
       </c>
@@ -25070,15 +25070,15 @@
       <c r="U32" s="73">
         <v>5.3402335982175604</v>
       </c>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
     </row>
     <row r="33" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="74"/>
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
@@ -25107,15 +25107,15 @@
       <c r="S33" s="74"/>
       <c r="T33" s="74"/>
       <c r="U33" s="75"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
     </row>
     <row r="34" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="46"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="74"/>
       <c r="E34" s="74"/>
       <c r="F34" s="74"/>
@@ -25136,15 +25136,15 @@
       <c r="S34" s="74"/>
       <c r="T34" s="74"/>
       <c r="U34" s="75"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
     </row>
     <row r="35" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="46"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="71">
         <v>135152.17879999999</v>
       </c>
@@ -25199,15 +25199,15 @@
       <c r="U35" s="73">
         <v>2.7474012244528798</v>
       </c>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="55"/>
+      <c r="B36" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="71">
         <v>48381.23</v>
       </c>
@@ -25248,15 +25248,15 @@
       <c r="U36" s="73">
         <v>-15.409842904906601</v>
       </c>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
     </row>
     <row r="37" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="46"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="71">
         <v>94766.73</v>
       </c>
@@ -25311,15 +25311,15 @@
       <c r="U37" s="73">
         <v>-8.0737357769075597</v>
       </c>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
     </row>
     <row r="38" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="46"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="71">
         <v>9468.3700000000008</v>
       </c>
@@ -25374,15 +25374,15 @@
       <c r="U38" s="73">
         <v>53.974830585060197</v>
       </c>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
     </row>
     <row r="39" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="46"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="71">
         <v>61395.8</v>
       </c>
@@ -25437,15 +25437,15 @@
       <c r="U39" s="73">
         <v>5.09557758836924</v>
       </c>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
     </row>
     <row r="40" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="74"/>
       <c r="E40" s="74"/>
       <c r="F40" s="74"/>
@@ -25478,15 +25478,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="U40" s="75"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="46"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="71">
         <v>126517.94899999999</v>
       </c>
@@ -25541,15 +25541,15 @@
       <c r="U41" s="73">
         <v>12.4321898100736</v>
       </c>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
     </row>
     <row r="42" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="46"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="71">
         <v>252593.56830000001</v>
       </c>
@@ -25604,15 +25604,15 @@
       <c r="U42" s="73">
         <v>4.4535102672419304</v>
       </c>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
     </row>
     <row r="43" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="46"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="71">
         <v>57626.52</v>
       </c>
@@ -25667,15 +25667,15 @@
       <c r="U43" s="73">
         <v>5.7981452521050096</v>
       </c>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
     </row>
     <row r="44" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="46"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="71">
         <v>34002.589999999997</v>
       </c>
@@ -25730,15 +25730,15 @@
       <c r="U44" s="73">
         <v>36.261550871825499</v>
       </c>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
     </row>
     <row r="45" spans="1:23" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="56"/>
+      <c r="B45" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="46"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="76">
         <v>19360.5173</v>
       </c>
@@ -25789,12 +25789,11 @@
       <c r="U45" s="79">
         <v>-157.14465677458699</v>
       </c>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
     <mergeCell ref="B6:C6"/>
@@ -25805,38 +25804,39 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
